--- a/biology/Zoologie/Allactaginae/Allactaginae.xlsx
+++ b/biology/Zoologie/Allactaginae/Allactaginae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Allactaginae a été créée par le zoologiste russe Boris Stepanovich Vinogradov (1891-1958) en 1925. Elle regroupe trois genres de gerboises, rongeurs sauteurs à longues pattes arrière, de la famille des Dipodidés.
 </t>
@@ -511,14 +523,50 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (14 mai 2012)[1] et Mammal Species of the World (version 3, 2005)  (14 mai 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (14 mai 2012) et Mammal Species of the World (version 3, 2005)  (14 mai 2012) :
 genre Allactaga F. Cuvier, 1837
 genre Allactodipus Kolesnikov, 1937. Genre monotypique : Gerboise de Bobrinski
-genre Pygeretmus Gloger, 1841
-Liste des sous-genres
-Selon Mammal Species of the World (version 3, 2005)  (14 mai 2012)[2] :
+genre Pygeretmus Gloger, 1841</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Allactaginae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allactaginae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (14 mai 2012) :
 genre Allactaga
 sous-genre Allactaga (Allactaga)
 sous-genre Allactaga (Orientallactaga)
